--- a/DataTables/Datas/subobject.xlsx
+++ b/DataTables/Datas/subobject.xlsx
@@ -55,16 +55,16 @@
     <t>collisionType</t>
   </si>
   <si>
-    <t>singleCollisionCount</t>
-  </si>
-  <si>
-    <t>maxCollisionCount</t>
-  </si>
-  <si>
-    <t>collisionInterval</t>
-  </si>
-  <si>
-    <t>collisionWithLife</t>
+    <t>singleHitCount</t>
+  </si>
+  <si>
+    <t>maxHitCount</t>
+  </si>
+  <si>
+    <t>hitInterval</t>
+  </si>
+  <si>
+    <t>hitWithLife</t>
   </si>
   <si>
     <t>##type</t>
@@ -103,7 +103,7 @@
     <t>行为树脚本</t>
   </si>
   <si>
-    <t>受击特效id</t>
+    <t>碰撞特效id</t>
   </si>
   <si>
     <t>伤害倍率</t>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
